--- a/Tabellen/Residuen_Analyse_west_Model_II.xlsx
+++ b/Tabellen/Residuen_Analyse_west_Model_II.xlsx
@@ -527,7 +527,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0357498431270728</v>
+        <v>-0.0357498431270729</v>
       </c>
     </row>
     <row r="3">
@@ -535,7 +535,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0123840249205882</v>
+        <v>-0.0123840249205868</v>
       </c>
     </row>
     <row r="4">
@@ -543,7 +543,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0025443633327947</v>
+        <v>-0.00254436333279292</v>
       </c>
     </row>
     <row r="5">
@@ -551,7 +551,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0000482747627485472</v>
+        <v>-0.0000482747627481501</v>
       </c>
     </row>
     <row r="6">
@@ -559,7 +559,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0124980773853847</v>
+        <v>0.012498077385385</v>
       </c>
     </row>
     <row r="7">
@@ -567,7 +567,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0513751924710847</v>
+        <v>0.0513751924710845</v>
       </c>
     </row>
   </sheetData>
